--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiranjeev\Documents\Investment case study Cohort-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sj422e\Desktop\Study\IITB-Data Science\Workspace\Group Projects\Course 2 Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7080" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -17,11 +17,8 @@
     <sheet name="Table-3.1" sheetId="5" r:id="rId3"/>
     <sheet name="Table-5.1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>C1</t>
   </si>
@@ -357,12 +354,33 @@
   </si>
   <si>
     <t>Sector-wise Investment Analysis</t>
+  </si>
+  <si>
+    <t>permalink</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>10.69 mil</t>
+  </si>
+  <si>
+    <t>0.77 mil</t>
+  </si>
+  <si>
+    <t>0.56 mil</t>
+  </si>
+  <si>
+    <t>63.3 mil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,24 +650,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,13 +689,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,36 +1012,36 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1031,55 +1052,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19">
+        <v>66368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="19">
+        <v>66368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="19">
+        <v>114949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
     </row>
   </sheetData>
@@ -1105,35 +1136,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1144,50 +1175,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="25" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1214,34 +1255,34 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1261,7 +1302,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1270,7 +1311,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1302,56 +1343,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -1362,7 +1403,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -1373,7 +1414,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>3</v>
       </c>
@@ -1384,7 +1425,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>4</v>
       </c>
@@ -1395,7 +1436,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>5</v>
       </c>
@@ -1406,7 +1447,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -1417,7 +1458,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -1428,7 +1469,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -1439,7 +1480,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -1450,7 +1491,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>10</v>
       </c>

--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>C1</t>
   </si>
@@ -365,16 +365,64 @@
     <t>venture</t>
   </si>
   <si>
-    <t>10.69 mil</t>
-  </si>
-  <si>
-    <t>0.77 mil</t>
-  </si>
-  <si>
-    <t>0.56 mil</t>
-  </si>
-  <si>
-    <t>63.3 mil</t>
+    <t>11.73m</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>73.61m</t>
+  </si>
+  <si>
+    <t>0.96m</t>
+  </si>
+  <si>
+    <t>0.74m</t>
+  </si>
+  <si>
+    <t>107578.4 m</t>
+  </si>
+  <si>
+    <t>5380.22 m</t>
+  </si>
+  <si>
+    <t>2949.55 m</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
+    <t>Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t>News, Search and Messaging</t>
+  </si>
+  <si>
+    <t>virtustream</t>
+  </si>
+  <si>
+    <t>electric cloud</t>
+  </si>
+  <si>
+    <t>firstcry.com</t>
+  </si>
+  <si>
+    <t>sst inc. (formerly shotspotter)</t>
+  </si>
+  <si>
+    <t>celltick technologies</t>
+  </si>
+  <si>
+    <t>manthan systems</t>
   </si>
 </sst>
 </file>
@@ -637,7 +685,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -660,6 +707,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -1059,7 +1109,7 @@
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>66368</v>
       </c>
     </row>
@@ -1070,7 +1120,7 @@
       <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>66368</v>
       </c>
     </row>
@@ -1078,10 +1128,10 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1089,10 +1139,10 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1100,10 +1150,10 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>114949</v>
       </c>
     </row>
@@ -1136,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,7 +1232,7 @@
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1193,8 +1243,8 @@
       <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>44</v>
+      <c r="C6" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,8 +1254,8 @@
       <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>45</v>
+      <c r="C7" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,8 +1265,8 @@
       <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>46</v>
+      <c r="C8" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1226,7 +1276,7 @@
       <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1300,7 +1350,9 @@
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="25" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1309,7 +1361,9 @@
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -1318,7 +1372,9 @@
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="25" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1351,9 +1407,7 @@
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="3" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1376,131 +1430,191 @@
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="18">
+        <v>12044</v>
+      </c>
+      <c r="D5" s="18">
+        <v>620</v>
+      </c>
+      <c r="E5" s="18">
+        <v>328</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="18">
+        <v>2958</v>
+      </c>
+      <c r="D10" s="18">
+        <v>148</v>
+      </c>
+      <c r="E10" s="18">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>7</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="18">
+        <v>2718</v>
+      </c>
+      <c r="D11" s="18">
+        <v>133</v>
+      </c>
+      <c r="E11" s="18">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="18">
+        <v>2305</v>
+      </c>
+      <c r="D12" s="18">
+        <v>128</v>
+      </c>
+      <c r="E12" s="18">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Table-3.1" sheetId="5" r:id="rId3"/>
     <sheet name="Table-5.1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -386,15 +386,6 @@
     <t>0.74m</t>
   </si>
   <si>
-    <t>107578.4 m</t>
-  </si>
-  <si>
-    <t>5380.22 m</t>
-  </si>
-  <si>
-    <t>2949.55 m</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
@@ -423,6 +414,15 @@
   </si>
   <si>
     <t>manthan systems</t>
+  </si>
+  <si>
+    <t>107578.4 million</t>
+  </si>
+  <si>
+    <t>5380.22 million</t>
+  </si>
+  <si>
+    <t>2949.55 million</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,13 +1471,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1488,13 +1488,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1505,13 +1505,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1522,13 +1522,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1590,13 +1590,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1607,13 +1607,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
